--- a/Doc/Plan/项目详细开发计划.xlsx
+++ b/Doc/Plan/项目详细开发计划.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14700" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +183,10 @@
   </si>
   <si>
     <t>2、制定发布公告、通知、作业的逻辑和模板，家长绑定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[v0.1.141130]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -470,11 +475,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,6 +535,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,6 +574,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -846,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -875,9 +912,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>141124</v>
+        <v>141201</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>40</v>
@@ -885,319 +922,400 @@
       <c r="C2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>33</v>
+      <c r="D2" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>141125</v>
+      <c r="A3" s="3">
+        <v>141202</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="16"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>141126</v>
+        <v>141203</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="16"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>141127</v>
+      <c r="A5" s="3">
+        <v>141204</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>141128</v>
+        <v>141205</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>141129</v>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>141206</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="17"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>141117</v>
+        <v>141124</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>141118</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>141125</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D10" s="17"/>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>141119</v>
+        <v>141126</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="17"/>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
+        <v>141127</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>141128</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>141129</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>141117</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>141118</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>141119</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>141120</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
         <v>141121</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="D20" s="17"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <v>141122</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>141110</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>141111</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>141112</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>141113</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>141114</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>141115</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
+        <v>141110</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>141111</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>141112</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>141113</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>141114</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>141115</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
         <v>141102</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D30" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
+    <row r="31" spans="1:5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="6">
         <v>141103</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="7" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
+    <row r="32" spans="1:5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="6">
         <v>141104</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="7" t="s">
+      <c r="D32" s="23"/>
+      <c r="E32" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
+    <row r="33" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
         <v>141105</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="7" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
+    <row r="34" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
         <v>141106</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="7" t="s">
+      <c r="D34" s="23"/>
+      <c r="E34" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+    <row r="35" spans="1:5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
         <v>141107</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="D2:D7"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="D30:D35"/>
     <mergeCell ref="D23:D28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="C23:C25"/>
     <mergeCell ref="D16:D21"/>
     <mergeCell ref="A22:E22"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
